--- a/src/COVID-19/covid_menu/Users.xlsx
+++ b/src/COVID-19/covid_menu/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Moldova\CAPI\Training7.4\github_parstat\cspro-training\src\COVID-19\covid_menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11134C0-3E04-40FC-AB3A-390E8CAC487A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69FD18-65E4-4230-B7C6-1A2CE3EC3C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DAB74AB-959F-46EB-B6A9-6D44F5DE6812}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>USER_ID</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>USER_PIN</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FAILED_LOGIN</t>
   </si>
 </sst>
 </file>
@@ -406,18 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A6E45-F356-410B-BF04-08C63025D1B2}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +437,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,8 +457,14 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,8 +477,14 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -471,6 +496,12 @@
       </c>
       <c r="D4">
         <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
